--- a/output/face_clustering/CW_kv-resnet50_th8000_it3000/output.xlsx
+++ b/output/face_clustering/CW_kv-resnet50_th8000_it3000/output.xlsx
@@ -23,76 +23,76 @@
     <t>path</t>
   </si>
   <si>
-    <t>.\dataset\irene\img_1.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\irene\img_2.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\irene\img_3.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\irene\img_4.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\irene\img_5.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\joy\img_1.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\joy\img_2.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\joy\img_3.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\joy\img_4.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\joy\img_5.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\seulgi\img_1.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\seulgi\img_2.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\seulgi\img_3.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\seulgi\img_4.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\seulgi\img_5.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\yeri\img_1.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\yeri\img_2.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\yeri\img_3.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\yeri\img_4.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\yeri\img_5.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\wendy\img_1.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\wendy\img_3.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\wendy\img_4.jpg</t>
-  </si>
-  <si>
-    <t>.\dataset\wendy\img_5.jpg</t>
+    <t>./dataset/train\irene\img_1.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\irene\img_2.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\irene\img_3.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\irene\img_4.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\irene\img_5.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\joy\img_1.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\joy\img_2.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\joy\img_3.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\joy\img_4.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\joy\img_5.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\seulgi\img_1.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\seulgi\img_2.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\seulgi\img_3.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\seulgi\img_4.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\seulgi\img_5.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\yeri\img_1.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\yeri\img_2.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\yeri\img_3.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\yeri\img_4.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\yeri\img_5.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\wendy\img_1.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\wendy\img_3.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\wendy\img_4.jpg</t>
+  </si>
+  <si>
+    <t>./dataset/train\wendy\img_5.jpg</t>
   </si>
 </sst>
 </file>
